--- a/nflFantasy.xlsx
+++ b/nflFantasy.xlsx
@@ -17,13 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,24 +419,756 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>world!</t>
-        </is>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pass Yds:</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pass TDs:</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rush Yds:</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rush TDs:</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fant Pts:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lamar Jackson</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Russell Wilson </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>322</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gardner Minshew II</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>173</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aaron Rodgers </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>364</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Mahomes </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>211</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Taysom Hill</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kirk Cousins </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>259</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ben Roethlisberger</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>229</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Derek Carr</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>239</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josh Allen </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>312</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>36.18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitchell Trubisky </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>242</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jimmy Garoppolo</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>259</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cam Newton</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>155</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Teddy Bridgewater</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>269</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ryan Tannehill</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>249</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23.36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Drew Brees</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>160</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Drew Lock</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>216</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dak Prescott </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>266</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Philip Rivers</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>363</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deshaun Watson </t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>253</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dwayne Haskins </t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>178</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jared Goff</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>275</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Jones </t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>279</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom Brady </t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>239</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kyler Murray </t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>230</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>91</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Matthew Stafford</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>297</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tyrod Taylor </t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>208</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sam Darnold </t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>215</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carson Wentz </t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>270</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joe Burrow </t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>193</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>46</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Baker Mayfield</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>189</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ryan Fitzpatrick</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>191</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.44</v>
       </c>
     </row>
   </sheetData>
